--- a/countries_in order.xlsx
+++ b/countries_in order.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A748D-47D7-4DD3-9D36-9D470934D8F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DAEC4D-CD4D-4F73-97D9-CB41CA7EA6A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28590" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,10 +626,10 @@
     <t>visit</t>
   </si>
   <si>
-    <t>kosovo</t>
-  </si>
-  <si>
     <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="110" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B110" s="3">
         <v>34</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="204" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>59</v>
